--- a/house-self/custom/images/ds_img.xlsx
+++ b/house-self/custom/images/ds_img.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Hoc_tap_Drive\211\WEB\github\Assign\cabkee\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Hoc_tap_Drive\211\WEB\github\Assign\house-self\custom\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5878342-85E0-4B1C-8B79-B0FE0AFC308E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F31B231-4A93-4070-A694-FF222FD339BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>Mã ID</t>
   </si>
@@ -199,6 +199,90 @@
   </si>
   <si>
     <t>A001-1</t>
+  </si>
+  <si>
+    <t>A002-1</t>
+  </si>
+  <si>
+    <t>Tree Glass Top Coffee Table</t>
+  </si>
+  <si>
+    <t>A003-1</t>
+  </si>
+  <si>
+    <t>Faux Wood Circular Coffee Table</t>
+  </si>
+  <si>
+    <t>A004-1</t>
+  </si>
+  <si>
+    <t>Stainless Steel Round Coffee Table</t>
+  </si>
+  <si>
+    <t>A005-1</t>
+  </si>
+  <si>
+    <t>Stylist Red Oval Shape Coffee Table</t>
+  </si>
+  <si>
+    <t>A301-1</t>
+  </si>
+  <si>
+    <t>Waverly Sun Rug</t>
+  </si>
+  <si>
+    <t>A302-1</t>
+  </si>
+  <si>
+    <t>Safavieh Hudson Rug</t>
+  </si>
+  <si>
+    <t>A303-1</t>
+  </si>
+  <si>
+    <t>Contemporary</t>
+  </si>
+  <si>
+    <t>A304-1</t>
+  </si>
+  <si>
+    <t>Lexie Ombre Rug</t>
+  </si>
+  <si>
+    <t>A305-1</t>
+  </si>
+  <si>
+    <t>Hand Carved Stones Rug</t>
+  </si>
+  <si>
+    <t>A401-1</t>
+  </si>
+  <si>
+    <t>A402-1</t>
+  </si>
+  <si>
+    <t>A403-1</t>
+  </si>
+  <si>
+    <t>A404-1</t>
+  </si>
+  <si>
+    <t>A405-1</t>
+  </si>
+  <si>
+    <t>Spanish Bay Console</t>
+  </si>
+  <si>
+    <t>Turnberry Console</t>
+  </si>
+  <si>
+    <t>Modrest Mali TV stand</t>
+  </si>
+  <si>
+    <t>Adina TV Stand</t>
+  </si>
+  <si>
+    <t>Musical Console</t>
   </si>
 </sst>
 </file>
@@ -578,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -870,101 +954,213 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1050000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>885000</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1870000</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1680000</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1750000</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1550000</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4580000</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3920000</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1">
+        <v>279000</v>
+      </c>
+      <c r="F26" s="1">
+        <v>222000</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="1">
+        <v>573000</v>
+      </c>
+      <c r="F27" s="1">
+        <v>271000</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="1">
+        <v>535000</v>
+      </c>
+      <c r="F28" s="1">
+        <v>433000</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="1">
+        <v>602000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>268000</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="1">
+        <v>516000</v>
+      </c>
+      <c r="F30" s="1">
+        <v>463000</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="1">
+        <v>18850000</v>
+      </c>
+      <c r="F31" s="1">
+        <v>15910000</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="1">
+        <v>19850000</v>
+      </c>
+      <c r="F32" s="1">
+        <v>18990000</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="1">
+        <v>15450000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>13990000</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="1">
+        <v>9690000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8590000</v>
+      </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="1">
+        <v>12824000</v>
+      </c>
+      <c r="F35" s="1">
+        <v>10890000</v>
+      </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.35">

--- a/house-self/custom/images/ds_img.xlsx
+++ b/house-self/custom/images/ds_img.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Hoc_tap_Drive\211\WEB\github\Assign\house-self\custom\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F31B231-4A93-4070-A694-FF222FD339BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2346A06D-07B0-43AD-95C7-CB6E1D99D7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
